--- a/03 scripts/features r00.xlsx
+++ b/03 scripts/features r00.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Encoding" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,17 +21,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="154">
   <si>
     <t xml:space="preserve">Column name</t>
   </si>
   <si>
+    <t xml:space="preserve">Missing Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% of Total Values</t>
+  </si>
+  <si>
     <t xml:space="preserve">dtype</t>
   </si>
   <si>
     <t xml:space="preserve">Num unique</t>
   </si>
   <si>
+    <t xml:space="preserve">NOTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformer 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformer 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformer 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformer 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">SK_ID_CURR</t>
   </si>
   <si>
@@ -46,9 +71,42 @@
     <t xml:space="preserve">object</t>
   </si>
   <si>
+    <t xml:space="preserve">LabelBinarizer</t>
+  </si>
+  <si>
     <t xml:space="preserve">CODE_GENDER</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Drop the 3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> cat?</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">FLAG_OWN_CAR</t>
   </si>
   <si>
@@ -76,15 +134,27 @@
     <t xml:space="preserve">NAME_TYPE_SUITE</t>
   </si>
   <si>
+    <t xml:space="preserve">LabelEncoder</t>
+  </si>
+  <si>
     <t xml:space="preserve">NAME_INCOME_TYPE</t>
   </si>
   <si>
+    <t xml:space="preserve">ORDINAL!</t>
+  </si>
+  <si>
     <t xml:space="preserve">NAME_EDUCATION_TYPE</t>
   </si>
   <si>
+    <t xml:space="preserve">Ordinal?</t>
+  </si>
+  <si>
     <t xml:space="preserve">NAME_FAMILY_STATUS</t>
   </si>
   <si>
+    <t xml:space="preserve">nominal</t>
+  </si>
+  <si>
     <t xml:space="preserve">NAME_HOUSING_TYPE</t>
   </si>
   <si>
@@ -139,6 +209,9 @@
     <t xml:space="preserve">WEEKDAY_APPR_PROCESS_START</t>
   </si>
   <si>
+    <t xml:space="preserve">Nominal?</t>
+  </si>
+  <si>
     <t xml:space="preserve">HOUR_APPR_PROCESS_START</t>
   </si>
   <si>
@@ -404,20 +477,56 @@
   </si>
   <si>
     <t xml:space="preserve">AMT_REQ_CREDIT_BUREAU_YEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sklearn.preprocessing.OneHotEncoder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sklearn.feature_extraction.DictVectorizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">performs a one-hot encoding of dictionary items (also handles string-valued features).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sklearn.feature_extraction.FeatureHasher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">performs an approximate one-hot encoding of dictionary items or strings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sklearn.preprocessing.LabelBinarizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">binarizes labels in a one-vs-all fashion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sklearn.preprocessing.MultiLabelBinarizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transforms between iterable of iterables and a multilabel format, e.g. a (samples x classes) binary matrix indicating the presence of a class label.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sklearn.preprocessing.LabelEncoder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encodes labels with values between 0 and n_classes-1.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -434,13 +543,39 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF66"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF193300"/>
+        <bgColor rgb="FF333300"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -452,7 +587,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -476,21 +611,139 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Untitled1" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Untitled2" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF193300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFCCFF66"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF193300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -499,20 +752,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.6530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.2040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.4897959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.03571428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.3724489795918"/>
+    <col collapsed="false" hidden="false" max="11" min="6" style="0" width="15.280612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,1035 +778,2013 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.00390229942993909</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>278</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0.0904032701269223</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1292</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0.420147571956776</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>7</v>
-      </c>
+      <c r="H13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="F14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="F15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="F16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="F17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>202929</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>65.9908100848425</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>96391</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>31.3455453626049</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="F30" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>0.000650383238323182</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C34" s="0" t="n">
-        <v>7</v>
-      </c>
+      <c r="F34" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="M34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="0" t="n">
         <v>58</v>
       </c>
+      <c r="M42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>173378</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>56.3810725469983</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>660</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>0.21462646864665</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>60965</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>19.8253070621864</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>156061</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>50.749729277977</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>179943</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>58.5159555267942</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>150007</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>48.7810192155728</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>204488</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>66.4977838191154</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>214865</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>69.8722972511552</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>163891</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>53.2959796560123</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>154828</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>50.3487680115508</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>153020</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>49.7608215641067</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>208642</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>67.8486298051127</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>182590</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>59.3767377427149</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>210199</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>68.3549531561473</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>154350</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>50.1933264175916</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>213514</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>69.4329633736679</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>169682</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>55.1791643225771</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>156061</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>50.749729277977</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>179943</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>58.5159555267942</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>150007</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>48.7810192155728</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>204488</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>66.4977838191154</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>214865</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>69.8722972511552</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>163891</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>53.2959796560123</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>154828</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>50.3487680115508</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>153020</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>49.7608215641067</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>208642</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>67.8486298051127</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>182590</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>59.3767377427149</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>210199</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>68.3549531561473</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>154350</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>50.1933264175916</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>213514</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>69.4329633736679</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>169682</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>55.1791643225771</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>156061</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>50.749729277977</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>179943</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>58.5159555267942</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>150007</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>48.7810192155728</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>204488</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>66.4977838191154</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>214865</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>69.8722972511552</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>163891</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>53.2959796560123</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>154828</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>50.3487680115508</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>153020</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>49.7608215641067</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>208642</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>67.8486298051127</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>182590</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>59.3767377427149</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>210199</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>68.3549531561473</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>154350</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>50.1933264175916</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>213514</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>69.4329633736679</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>169682</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>55.1791643225771</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>210295</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>68.3861715515868</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="M88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>154297</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>50.176091261776</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="M89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>148431</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>48.2685172237741</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>7</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>156341</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>50.8407829313423</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>7</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>145755</v>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>47.3983044508977</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C93" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>0.332020643163984</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="M93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>0.332020643163984</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="M94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C95" s="1" t="n">
+        <v>0.332020643163984</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>0.332020643163984</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1" t="n">
+        <v>0.000325191619161591</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M116" s="0"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>41519</v>
+      </c>
+      <c r="C118" s="1" t="n">
+        <v>13.5016308359701</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>41519</v>
+      </c>
+      <c r="C119" s="1" t="n">
+        <v>13.5016308359701</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>41519</v>
+      </c>
+      <c r="C120" s="1" t="n">
+        <v>13.5016308359701</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>41519</v>
+      </c>
+      <c r="C121" s="1" t="n">
+        <v>13.5016308359701</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>41519</v>
+      </c>
+      <c r="C122" s="1" t="n">
+        <v>13.5016308359701</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>41519</v>
+      </c>
+      <c r="C123" s="1" t="n">
+        <v>13.5016308359701</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M123" s="0"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D:D">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"int64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"object"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"float64"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C:C">
+    <cfRule type="dataBar" priority="5">
+      <dataBar showValue="1" minLength="0" maxLength="100">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF0000FF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1727E748-E794-485B-9BD7-14BFFB56BCD7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1558,5 +2792,113 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1727E748-E794-485B-9BD7-14BFFB56BCD7}">
+            <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="true">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FF0000FF"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C:C</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="E13:E24"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E15" r:id="rId1" location="sklearn.feature_extraction.DictVectorizer" display="sklearn.feature_extraction.DictVectorizer"/>
+    <hyperlink ref="E17" r:id="rId2" location="sklearn.feature_extraction.FeatureHasher" display="sklearn.feature_extraction.FeatureHasher"/>
+    <hyperlink ref="E19" r:id="rId3" location="sklearn.preprocessing.LabelBinarizer" display="sklearn.preprocessing.LabelBinarizer"/>
+    <hyperlink ref="E21" r:id="rId4" location="sklearn.preprocessing.MultiLabelBinarizer" display="sklearn.preprocessing.MultiLabelBinarizer"/>
+    <hyperlink ref="E23" r:id="rId5" location="sklearn.preprocessing.LabelEncoder" display="sklearn.preprocessing.LabelEncoder"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>